--- a/src/test/resources/FMEA_missing_string_data_and_integer_data.xlsx
+++ b/src/test/resources/FMEA_missing_string_data_and_integer_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/zendrahealth/excel-validator/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B394835-D5C1-084A-BB04-6A12AAF80CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD465362-7764-724F-84F3-54D3E63CDACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>Item</t>
   </si>
@@ -1602,8 +1602,8 @@
   </sheetPr>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2391,6 +2391,7 @@
 Identity theft, Exploitation: Ransom or Targeting</v>
       </c>
       <c r="I10" s="27">
+        <f>VLOOKUP(VLOOKUP($G10,'Accidents, Hazards &amp; Harms '!$H$2:$I$166,2,FALSE),'Accidents, Hazards &amp; Harms '!$K$2:$M$135,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J10" s="30">
@@ -2414,8 +2415,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P10" s="28" t="s">
-        <v>43</v>
+      <c r="P10" s="33" t="str">
+        <f t="array" ref="P10">INDEX('Scoring criteria'!$H$4:$L$6, MATCH(FMEA!N10, 'Scoring criteria'!$F$4:$F$6, 0), MATCH(FMEA!I10, 'Scoring criteria'!$H$3:$L$3, 0))</f>
+        <v>B</v>
       </c>
       <c r="Q10" s="35" t="s">
         <v>131</v>
@@ -2458,17 +2460,17 @@
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="D7:D9"/>
   </mergeCells>
-  <conditionalFormatting sqref="P1:P10 Y4:Y10">
+  <conditionalFormatting sqref="Y4:Y10 P1:P10">
     <cfRule type="cellIs" dxfId="37" priority="73" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P10 Y4:Y10">
+  <conditionalFormatting sqref="Y4:Y10 P1:P10">
     <cfRule type="cellIs" dxfId="36" priority="74" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P10 Y4:Y10">
+  <conditionalFormatting sqref="Y4:Y10 P1:P10">
     <cfRule type="cellIs" dxfId="35" priority="75" operator="equal">
       <formula>"A"</formula>
     </cfRule>

--- a/src/test/resources/FMEA_missing_string_data_and_integer_data.xlsx
+++ b/src/test/resources/FMEA_missing_string_data_and_integer_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/zendrahealth/excel-validator/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD465362-7764-724F-84F3-54D3E63CDACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B490A736-955C-4841-9B31-9D2C65A65870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,8 +1602,8 @@
   </sheetPr>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1727,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="27" t="str">
-        <f>VLOOKUP(E2,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E2,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G2" s="27" t="str">
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="27" t="str">
-        <f>VLOOKUP(E3,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E3,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G3" s="27" t="str">
@@ -1892,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="27" t="str">
-        <f>VLOOKUP(E4,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E4,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G4" s="27" t="str">
@@ -1971,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="27" t="str">
-        <f>VLOOKUP(E5,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E5,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G5" s="27" t="str">
@@ -2049,7 +2049,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="27" t="str">
-        <f>VLOOKUP(E6,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E6,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G6" s="27" t="str">
@@ -2129,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="27" t="str">
-        <f>VLOOKUP(E7,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E7,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G7" s="27" t="str">
@@ -2209,7 +2209,7 @@
         <v>90</v>
       </c>
       <c r="F8" s="27" t="str">
-        <f>VLOOKUP(E8,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E8,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G8" s="27" t="str">
@@ -2292,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="F9" s="27" t="str">
-        <f>VLOOKUP(E9,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E9,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ03</v>
       </c>
       <c r="G9" s="27" t="str">
@@ -2377,7 +2377,7 @@
         <v>127</v>
       </c>
       <c r="F10" s="27" t="str">
-        <f>VLOOKUP(E10,'Accidents, Hazards &amp; Harms '!$B$2:$C$120,2,FALSE)</f>
+        <f>VLOOKUP(E10,'Accidents, Hazards &amp; Harms '!$B$2:$C$190,2,FALSE)</f>
         <v>HAZ10</v>
       </c>
       <c r="G10" s="27" t="str">
